--- a/classification/droptc/message/bert-base-uncased/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/67351593/prediction.xlsx
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/bert-base-uncased/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/67351593/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['HardwareFault', 'SoftwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
